--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ME</t>
   </si>
@@ -44,18 +44,6 @@
   </si>
   <si>
     <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
-    <t>Q6</t>
-  </si>
-  <si>
-    <t>Q7</t>
   </si>
 </sst>
 </file>
@@ -413,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3800755034380217</v>
+        <v>0.1100390323238504</v>
       </c>
       <c r="C2">
-        <v>0.5658804482719724</v>
+        <v>0.6932609026360904</v>
       </c>
       <c r="D2">
-        <v>0.513031016391572</v>
+        <v>0.7099478564566527</v>
       </c>
       <c r="E2">
-        <v>0.7162618350795832</v>
+        <v>0.8425840352490976</v>
       </c>
       <c r="F2">
-        <v>0.6300201946147128</v>
+        <v>0.8669020772270012</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -467,22 +455,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2174770073140166</v>
+        <v>0.1368261710548836</v>
       </c>
       <c r="C3">
-        <v>0.2960810186477317</v>
+        <v>0.5060341660178811</v>
       </c>
       <c r="D3">
-        <v>0.2534886827890786</v>
+        <v>0.4144708479301442</v>
       </c>
       <c r="E3">
-        <v>0.5034765960688526</v>
+        <v>0.6437941036776775</v>
       </c>
       <c r="F3">
-        <v>0.4726257895192763</v>
+        <v>0.6631150787043795</v>
       </c>
       <c r="G3">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,22 +478,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2474678185737623</v>
+        <v>-0.1394442012808889</v>
       </c>
       <c r="C4">
-        <v>0.3121096660754062</v>
+        <v>0.3774106509366791</v>
       </c>
       <c r="D4">
-        <v>0.2629076827384108</v>
+        <v>0.2048604832801028</v>
       </c>
       <c r="E4">
-        <v>0.5127452415560878</v>
+        <v>0.4526151602411289</v>
       </c>
       <c r="F4">
-        <v>0.4690423840225424</v>
+        <v>0.4716979516714963</v>
       </c>
       <c r="G4">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -513,111 +501,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2343309920015479</v>
+        <v>-0.06415781549280508</v>
       </c>
       <c r="C5">
-        <v>0.2889028441577445</v>
+        <v>0.7320926441837636</v>
       </c>
       <c r="D5">
-        <v>0.1346101479686339</v>
+        <v>0.5400758649567836</v>
       </c>
       <c r="E5">
-        <v>0.3668925564366683</v>
+        <v>0.7348985405869192</v>
       </c>
       <c r="F5">
-        <v>0.2960895938256271</v>
+        <v>1.035335346318259</v>
       </c>
       <c r="G5">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>0.1269412212605874</v>
-      </c>
-      <c r="C6">
-        <v>0.1856020290817225</v>
-      </c>
-      <c r="D6">
-        <v>0.05527787828633437</v>
-      </c>
-      <c r="E6">
-        <v>0.2351124800735477</v>
-      </c>
-      <c r="F6">
-        <v>0.2086033040944381</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>0.1999284027768936</v>
-      </c>
-      <c r="C7">
-        <v>0.1999284027768936</v>
-      </c>
-      <c r="D7">
-        <v>0.06349824818498784</v>
-      </c>
-      <c r="E7">
-        <v>0.2519885874101997</v>
-      </c>
-      <c r="F7">
-        <v>0.1656744667696646</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>0.1991746232653598</v>
-      </c>
-      <c r="C8">
-        <v>0.1991746232653598</v>
-      </c>
-      <c r="D8">
-        <v>0.06004821916866581</v>
-      </c>
-      <c r="E8">
-        <v>0.2450473814768601</v>
-      </c>
-      <c r="F8">
-        <v>0.1648340119262113</v>
-      </c>
-      <c r="G8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>0.07912393585369162</v>
-      </c>
-      <c r="C9">
-        <v>0.07912393585369162</v>
-      </c>
-      <c r="D9">
-        <v>0.006260597224979107</v>
-      </c>
-      <c r="E9">
-        <v>0.07912393585369162</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -432,19 +432,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1100390323238504</v>
+        <v>0.3297984293646418</v>
       </c>
       <c r="C2">
-        <v>0.6932609026360904</v>
+        <v>0.4599280677128398</v>
       </c>
       <c r="D2">
-        <v>0.7099478564566527</v>
+        <v>0.3388381866556515</v>
       </c>
       <c r="E2">
-        <v>0.8425840352490976</v>
+        <v>0.5820980902353584</v>
       </c>
       <c r="F2">
-        <v>0.8669020772270012</v>
+        <v>0.4977639660768899</v>
       </c>
       <c r="G2">
         <v>14</v>
@@ -455,19 +455,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1368261710548836</v>
+        <v>0.3132943648870622</v>
       </c>
       <c r="C3">
-        <v>0.5060341660178811</v>
+        <v>0.3132943648870622</v>
       </c>
       <c r="D3">
-        <v>0.4144708479301442</v>
+        <v>0.2339416816796298</v>
       </c>
       <c r="E3">
-        <v>0.6437941036776775</v>
+        <v>0.4836751819967919</v>
       </c>
       <c r="F3">
-        <v>0.6631150787043795</v>
+        <v>0.3884274887423822</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.1394442012808889</v>
+        <v>0.3533454843703288</v>
       </c>
       <c r="C4">
-        <v>0.3774106509366791</v>
+        <v>0.3533454843703288</v>
       </c>
       <c r="D4">
-        <v>0.2048604832801028</v>
+        <v>0.3385089747862772</v>
       </c>
       <c r="E4">
-        <v>0.4526151602411289</v>
+        <v>0.5818152411086163</v>
       </c>
       <c r="F4">
-        <v>0.4716979516714963</v>
+        <v>0.5063468496531306</v>
       </c>
       <c r="G4">
         <v>6</v>
@@ -501,19 +501,19 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>-0.06415781549280508</v>
+        <v>0.2173850498843069</v>
       </c>
       <c r="C5">
-        <v>0.7320926441837636</v>
+        <v>0.2173850498843069</v>
       </c>
       <c r="D5">
-        <v>0.5400758649567836</v>
+        <v>0.07346767206689039</v>
       </c>
       <c r="E5">
-        <v>0.7348985405869192</v>
+        <v>0.2710492059883046</v>
       </c>
       <c r="F5">
-        <v>1.035335346318259</v>
+        <v>0.2289603116423796</v>
       </c>
       <c r="G5">
         <v>2</v>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>ME</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Q3</t>
+  </si>
+  <si>
+    <t>Q4</t>
+  </si>
+  <si>
+    <t>Q5</t>
+  </si>
+  <si>
+    <t>Q6</t>
+  </si>
+  <si>
+    <t>Q7</t>
+  </si>
+  <si>
+    <t>Q8</t>
+  </si>
+  <si>
+    <t>Q9</t>
   </si>
 </sst>
 </file>
@@ -401,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.3297984293646418</v>
+        <v>0.08780261824621656</v>
       </c>
       <c r="C2">
-        <v>0.4599280677128398</v>
+        <v>0.7725920269955064</v>
       </c>
       <c r="D2">
-        <v>0.3388381866556515</v>
+        <v>2.162285864834432</v>
       </c>
       <c r="E2">
-        <v>0.5820980902353584</v>
+        <v>1.470471307042212</v>
       </c>
       <c r="F2">
-        <v>0.4977639660768899</v>
+        <v>1.484067398835772</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -455,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.3132943648870622</v>
+        <v>0.2407776619532973</v>
       </c>
       <c r="C3">
-        <v>0.3132943648870622</v>
+        <v>0.7527870312651909</v>
       </c>
       <c r="D3">
-        <v>0.2339416816796298</v>
+        <v>2.110441622564052</v>
       </c>
       <c r="E3">
-        <v>0.4836751819967919</v>
+        <v>1.452735909435728</v>
       </c>
       <c r="F3">
-        <v>0.3884274887423822</v>
+        <v>1.44883219668836</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -478,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.3533454843703288</v>
+        <v>0.1187069702962777</v>
       </c>
       <c r="C4">
-        <v>0.3533454843703288</v>
+        <v>0.783804746145044</v>
       </c>
       <c r="D4">
-        <v>0.3385089747862772</v>
+        <v>2.289524756223591</v>
       </c>
       <c r="E4">
-        <v>0.5818152411086163</v>
+        <v>1.513117561930861</v>
       </c>
       <c r="F4">
-        <v>0.5063468496531306</v>
+        <v>1.525893334249272</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,22 +519,160 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2173850498843069</v>
+        <v>0.2312605598051813</v>
       </c>
       <c r="C5">
-        <v>0.2173850498843069</v>
+        <v>0.8154870963700255</v>
       </c>
       <c r="D5">
-        <v>0.07346767206689039</v>
+        <v>2.323257756554268</v>
       </c>
       <c r="E5">
-        <v>0.2710492059883046</v>
+        <v>1.524223656998627</v>
       </c>
       <c r="F5">
-        <v>0.2289603116423796</v>
+        <v>1.524407623678418</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.1543123306983461</v>
+      </c>
+      <c r="C6">
+        <v>0.8126759977456647</v>
+      </c>
+      <c r="D6">
+        <v>2.40121625977409</v>
+      </c>
+      <c r="E6">
+        <v>1.549585834916572</v>
+      </c>
+      <c r="F6">
+        <v>1.5605734288761</v>
+      </c>
+      <c r="G6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.2357582618036748</v>
+      </c>
+      <c r="C7">
+        <v>0.8352230691908547</v>
+      </c>
+      <c r="D7">
+        <v>2.420446362568442</v>
+      </c>
+      <c r="E7">
+        <v>1.555778378358705</v>
+      </c>
+      <c r="F7">
+        <v>1.556915545132023</v>
+      </c>
+      <c r="G7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8">
+        <v>0.1764347851107931</v>
+      </c>
+      <c r="C8">
+        <v>0.8312978488293193</v>
+      </c>
+      <c r="D8">
+        <v>2.481252276672181</v>
+      </c>
+      <c r="E8">
+        <v>1.575199122864211</v>
+      </c>
+      <c r="F8">
+        <v>1.585227652752555</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.2294621647362194</v>
+      </c>
+      <c r="C9">
+        <v>0.8569143726678996</v>
+      </c>
+      <c r="D9">
+        <v>2.527131915378803</v>
+      </c>
+      <c r="E9">
+        <v>1.589695541724516</v>
+      </c>
+      <c r="F9">
+        <v>1.593611276175175</v>
+      </c>
+      <c r="G9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.1874282125274516</v>
+      </c>
+      <c r="C10">
+        <v>0.8425231446840433</v>
+      </c>
+      <c r="D10">
+        <v>2.595659384232942</v>
+      </c>
+      <c r="E10">
+        <v>1.611105019616332</v>
+      </c>
+      <c r="F10">
+        <v>1.621645326275095</v>
+      </c>
+      <c r="G10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0.1764013765962084</v>
+      </c>
+      <c r="C11">
+        <v>0.8338957443602626</v>
+      </c>
+      <c r="D11">
+        <v>2.565872115365881</v>
+      </c>
+      <c r="E11">
+        <v>1.60183398495783</v>
+      </c>
+      <c r="F11">
+        <v>1.614052205362943</v>
+      </c>
+      <c r="G11">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.08780261824621656</v>
+        <v>0.1113813209086354</v>
       </c>
       <c r="C2">
-        <v>0.7725920269955064</v>
+        <v>1.082668180363185</v>
       </c>
       <c r="D2">
-        <v>2.162285864834432</v>
+        <v>3.265531177099384</v>
       </c>
       <c r="E2">
-        <v>1.470471307042212</v>
+        <v>1.807078077200701</v>
       </c>
       <c r="F2">
-        <v>1.484067398835772</v>
+        <v>1.828521252897521</v>
       </c>
       <c r="G2">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.2407776619532973</v>
+        <v>0.1513751093172216</v>
       </c>
       <c r="C3">
-        <v>0.7527870312651909</v>
+        <v>0.9545256880515617</v>
       </c>
       <c r="D3">
-        <v>2.110441622564052</v>
+        <v>2.919874515134196</v>
       </c>
       <c r="E3">
-        <v>1.452735909435728</v>
+        <v>1.7087640314374</v>
       </c>
       <c r="F3">
-        <v>1.44883219668836</v>
+        <v>1.726189554985052</v>
       </c>
       <c r="G3">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.1187069702962777</v>
+        <v>0.2122263332368638</v>
       </c>
       <c r="C4">
-        <v>0.783804746145044</v>
+        <v>0.9540284968671798</v>
       </c>
       <c r="D4">
-        <v>2.289524756223591</v>
+        <v>2.851160657205658</v>
       </c>
       <c r="E4">
-        <v>1.513117561930861</v>
+        <v>1.688538023618555</v>
       </c>
       <c r="F4">
-        <v>1.525893334249272</v>
+        <v>1.699603954074797</v>
       </c>
       <c r="G4">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.2312605598051813</v>
+        <v>0.1511539997107805</v>
       </c>
       <c r="C5">
-        <v>0.8154870963700255</v>
+        <v>0.9530044890603636</v>
       </c>
       <c r="D5">
-        <v>2.323257756554268</v>
+        <v>2.951427543481194</v>
       </c>
       <c r="E5">
-        <v>1.524223656998627</v>
+        <v>1.717971927442702</v>
       </c>
       <c r="F5">
-        <v>1.524407623678418</v>
+        <v>1.737044864330408</v>
       </c>
       <c r="G5">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1543123306983461</v>
+        <v>0.2330575124652057</v>
       </c>
       <c r="C6">
-        <v>0.8126759977456647</v>
+        <v>0.9893939392548374</v>
       </c>
       <c r="D6">
-        <v>2.40121625977409</v>
+        <v>2.998246469334817</v>
       </c>
       <c r="E6">
-        <v>1.549585834916572</v>
+        <v>1.731544532876593</v>
       </c>
       <c r="F6">
-        <v>1.5605734288761</v>
+        <v>1.742391603086522</v>
       </c>
       <c r="G6">
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.2357582618036748</v>
+        <v>0.1708011111517192</v>
       </c>
       <c r="C7">
-        <v>0.8352230691908547</v>
+        <v>0.9843372303369592</v>
       </c>
       <c r="D7">
-        <v>2.420446362568442</v>
+        <v>3.106494255942373</v>
       </c>
       <c r="E7">
-        <v>1.555778378358705</v>
+        <v>1.762524966047963</v>
       </c>
       <c r="F7">
-        <v>1.556915545132023</v>
+        <v>1.782298982592832</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.1764347851107931</v>
+        <v>0.2456821311865818</v>
       </c>
       <c r="C8">
-        <v>0.8312978488293193</v>
+        <v>1.039250576912814</v>
       </c>
       <c r="D8">
-        <v>2.481252276672181</v>
+        <v>3.172757163278162</v>
       </c>
       <c r="E8">
-        <v>1.575199122864211</v>
+        <v>1.781223501775721</v>
       </c>
       <c r="F8">
-        <v>1.585227652752555</v>
+        <v>1.793361100136716</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.2294621647362194</v>
+        <v>0.1868069867954431</v>
       </c>
       <c r="C9">
-        <v>0.8569143726678996</v>
+        <v>1.037514270990646</v>
       </c>
       <c r="D9">
-        <v>2.527131915378803</v>
+        <v>3.290947412145117</v>
       </c>
       <c r="E9">
-        <v>1.589695541724516</v>
+        <v>1.814096858534603</v>
       </c>
       <c r="F9">
-        <v>1.593611276175175</v>
+        <v>1.835300565959116</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1874282125274516</v>
+        <v>0.2405366504582205</v>
       </c>
       <c r="C10">
-        <v>0.8425231446840433</v>
+        <v>1.068640860714179</v>
       </c>
       <c r="D10">
-        <v>2.595659384232942</v>
+        <v>3.366469277036136</v>
       </c>
       <c r="E10">
-        <v>1.611105019616332</v>
+        <v>1.834794069381122</v>
       </c>
       <c r="F10">
-        <v>1.621645326275095</v>
+        <v>1.851155339123688</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1764013765962084</v>
+        <v>0.1965726553058998</v>
       </c>
       <c r="C11">
-        <v>0.8338957443602626</v>
+        <v>1.065268685810892</v>
       </c>
       <c r="D11">
-        <v>2.565872115365881</v>
+        <v>3.497083030370647</v>
       </c>
       <c r="E11">
-        <v>1.60183398495783</v>
+        <v>1.870048937961423</v>
       </c>
       <c r="F11">
-        <v>1.614052205362943</v>
+        <v>1.893814318830355</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -450,22 +450,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.1113813209086354</v>
+        <v>-0.1098014276795042</v>
       </c>
       <c r="C2">
-        <v>1.082668180363185</v>
+        <v>1.001597774914103</v>
       </c>
       <c r="D2">
-        <v>3.265531177099384</v>
+        <v>3.676440339101017</v>
       </c>
       <c r="E2">
-        <v>1.807078077200701</v>
+        <v>1.917404584093044</v>
       </c>
       <c r="F2">
-        <v>1.828521252897521</v>
+        <v>1.935410742146401</v>
       </c>
       <c r="G2">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -473,22 +473,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.1513751093172216</v>
+        <v>-0.04263403788362221</v>
       </c>
       <c r="C3">
-        <v>0.9545256880515617</v>
+        <v>0.9298606546707162</v>
       </c>
       <c r="D3">
-        <v>2.919874515134196</v>
+        <v>2.644551444389527</v>
       </c>
       <c r="E3">
-        <v>1.7087640314374</v>
+        <v>1.626207687962865</v>
       </c>
       <c r="F3">
-        <v>1.726189554985052</v>
+        <v>1.644018222113035</v>
       </c>
       <c r="G3">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -496,22 +496,22 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>0.2122263332368638</v>
+        <v>0.02349174858992152</v>
       </c>
       <c r="C4">
-        <v>0.9540284968671798</v>
+        <v>0.8547905997665299</v>
       </c>
       <c r="D4">
-        <v>2.851160657205658</v>
+        <v>2.326980562185669</v>
       </c>
       <c r="E4">
-        <v>1.688538023618555</v>
+        <v>1.525444381872269</v>
       </c>
       <c r="F4">
-        <v>1.699603954074797</v>
+        <v>1.542897175107782</v>
       </c>
       <c r="G4">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -519,22 +519,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.1511539997107805</v>
+        <v>-0.01048034385804278</v>
       </c>
       <c r="C5">
-        <v>0.9530044890603636</v>
+        <v>0.9300756200516419</v>
       </c>
       <c r="D5">
-        <v>2.951427543481194</v>
+        <v>2.77002958153261</v>
       </c>
       <c r="E5">
-        <v>1.717971927442702</v>
+        <v>1.664340584595776</v>
       </c>
       <c r="F5">
-        <v>1.737044864330408</v>
+        <v>1.684004220309048</v>
       </c>
       <c r="G5">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -542,22 +542,22 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.2330575124652057</v>
+        <v>0.06150569597062733</v>
       </c>
       <c r="C6">
-        <v>0.9893939392548374</v>
+        <v>0.9485881305707295</v>
       </c>
       <c r="D6">
-        <v>2.998246469334817</v>
+        <v>2.681158187928369</v>
       </c>
       <c r="E6">
-        <v>1.731544532876593</v>
+        <v>1.6374242541041</v>
       </c>
       <c r="F6">
-        <v>1.742391603086522</v>
+        <v>1.656102977579422</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.1708011111517192</v>
+        <v>0.01952272370762674</v>
       </c>
       <c r="C7">
-        <v>0.9843372303369592</v>
+        <v>0.900502877365646</v>
       </c>
       <c r="D7">
-        <v>3.106494255942373</v>
+        <v>2.519736357723951</v>
       </c>
       <c r="E7">
-        <v>1.762524966047963</v>
+        <v>1.587367744955135</v>
       </c>
       <c r="F7">
-        <v>1.782298982592832</v>
+        <v>1.606965805954676</v>
       </c>
       <c r="G7">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.2456821311865818</v>
+        <v>0.0832317405015639</v>
       </c>
       <c r="C8">
-        <v>1.039250576912814</v>
+        <v>0.9720704585887642</v>
       </c>
       <c r="D8">
-        <v>3.172757163278162</v>
+        <v>2.678613246716973</v>
       </c>
       <c r="E8">
-        <v>1.781223501775721</v>
+        <v>1.636646952374571</v>
       </c>
       <c r="F8">
-        <v>1.793361100136716</v>
+        <v>1.655352073199598</v>
       </c>
       <c r="G8">
-        <v>31</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.1868069867954431</v>
+        <v>0.04039162028388746</v>
       </c>
       <c r="C9">
-        <v>1.037514270990646</v>
+        <v>0.9647072254469649</v>
       </c>
       <c r="D9">
-        <v>3.290947412145117</v>
+        <v>2.676716768498583</v>
       </c>
       <c r="E9">
-        <v>1.814096858534603</v>
+        <v>1.636067470643733</v>
       </c>
       <c r="F9">
-        <v>1.835300565959116</v>
+        <v>1.656949687439857</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.2405366504582205</v>
+        <v>0.08220434295181167</v>
       </c>
       <c r="C10">
-        <v>1.068640860714179</v>
+        <v>0.9843083280804179</v>
       </c>
       <c r="D10">
-        <v>3.366469277036136</v>
+        <v>2.693354164668678</v>
       </c>
       <c r="E10">
-        <v>1.834794069381122</v>
+        <v>1.641144163280203</v>
       </c>
       <c r="F10">
-        <v>1.851155339123688</v>
+        <v>1.661086189779386</v>
       </c>
       <c r="G10">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.1965726553058998</v>
+        <v>0.04603842961621714</v>
       </c>
       <c r="C11">
-        <v>1.065268685810892</v>
+        <v>0.9311122998615439</v>
       </c>
       <c r="D11">
-        <v>3.497083030370647</v>
+        <v>2.722267159893553</v>
       </c>
       <c r="E11">
-        <v>1.870048937961423</v>
+        <v>1.649929440883322</v>
       </c>
       <c r="F11">
-        <v>1.893814318830355</v>
+        <v>1.672036865348211</v>
       </c>
       <c r="G11">
-        <v>28</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
+++ b/3_Component_Results/DOMUSE/Tables/naive_tbl/AR2_50_9_qoq_forecast_error_table_first_eval.xlsx
@@ -565,22 +565,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01952272370762674</v>
+        <v>0.06372808675650223</v>
       </c>
       <c r="C7">
-        <v>0.900502877365646</v>
+        <v>0.9343998086003413</v>
       </c>
       <c r="D7">
-        <v>2.519736357723951</v>
+        <v>2.775446151470913</v>
       </c>
       <c r="E7">
-        <v>1.587367744955135</v>
+        <v>1.665967031927977</v>
       </c>
       <c r="F7">
-        <v>1.606965805954676</v>
+        <v>1.688362315275229</v>
       </c>
       <c r="G7">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -588,22 +588,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.0832317405015639</v>
+        <v>0.0399851282911067</v>
       </c>
       <c r="C8">
-        <v>0.9720704585887642</v>
+        <v>1.050477138034481</v>
       </c>
       <c r="D8">
-        <v>2.678613246716973</v>
+        <v>3.029802060013869</v>
       </c>
       <c r="E8">
-        <v>1.636646952374571</v>
+        <v>1.740632660848885</v>
       </c>
       <c r="F8">
-        <v>1.655352073199598</v>
+        <v>1.765578673122826</v>
       </c>
       <c r="G8">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -611,22 +611,22 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.04039162028388746</v>
+        <v>-0.04534382660436193</v>
       </c>
       <c r="C9">
-        <v>0.9647072254469649</v>
+        <v>1.253794741722951</v>
       </c>
       <c r="D9">
-        <v>2.676716768498583</v>
+        <v>4.508050214875826</v>
       </c>
       <c r="E9">
-        <v>1.636067470643733</v>
+        <v>2.123216949554573</v>
       </c>
       <c r="F9">
-        <v>1.656949687439857</v>
+        <v>2.177877806311915</v>
       </c>
       <c r="G9">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -634,22 +634,22 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.08220434295181167</v>
+        <v>-0.4013436200723844</v>
       </c>
       <c r="C10">
-        <v>0.9843083280804179</v>
+        <v>0.9917379900131201</v>
       </c>
       <c r="D10">
-        <v>2.693354164668678</v>
+        <v>2.080463190564922</v>
       </c>
       <c r="E10">
-        <v>1.641144163280203</v>
+        <v>1.442381083682437</v>
       </c>
       <c r="F10">
-        <v>1.661086189779386</v>
+        <v>1.441990070455223</v>
       </c>
       <c r="G10">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -657,22 +657,22 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>0.04603842961621714</v>
+        <v>0.2679351619938605</v>
       </c>
       <c r="C11">
-        <v>0.9311122998615439</v>
+        <v>0.5450213326915778</v>
       </c>
       <c r="D11">
-        <v>2.722267159893553</v>
+        <v>0.3698384655848825</v>
       </c>
       <c r="E11">
-        <v>1.649929440883322</v>
+        <v>0.6081434580630483</v>
       </c>
       <c r="F11">
-        <v>1.672036865348211</v>
+        <v>0.6103781763712214</v>
       </c>
       <c r="G11">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
